--- a/출석부.xlsx
+++ b/출석부.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="140">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,22 @@
     <t>입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>권기남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -766,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +855,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,7 +868,3607 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="285">
+  <dxfs count="585">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4640,13 +8259,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AJ40"/>
+  <dimension ref="C2:AU40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AK14" sqref="AK14"/>
+      <selection pane="bottomRight" activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4657,8 +8276,8 @@
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C2" s="24" t="s">
+    <row r="2" spans="3:47" x14ac:dyDescent="0.3">
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3">
@@ -4757,12 +8376,36 @@
       <c r="AI2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AJ2" s="23" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>23</v>
       </c>
+      <c r="AN2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="3" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C3" s="25"/>
+    <row r="3" spans="3:47" x14ac:dyDescent="0.3">
+      <c r="C3" s="26"/>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
@@ -4859,9 +8502,31 @@
       <c r="AI3" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="AJ3" s="23"/>
+      <c r="AJ3" s="24"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ3" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS3" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT3" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU3" s="23" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="4" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -4965,8 +8630,32 @@
         <f>COUNTIF(D4:AI4,"출")</f>
         <v>25</v>
       </c>
+      <c r="AN4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP4" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS4" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU4" s="23" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="5" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5070,8 +8759,32 @@
         <f>COUNTIF(D5:AI5,"출")</f>
         <v>14</v>
       </c>
+      <c r="AN5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ5" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS5" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT5" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU5" s="14" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="6" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5173,8 +8886,32 @@
         <f t="shared" ref="AJ6:AJ37" si="0">COUNTIF(D6:AI6,"출")</f>
         <v>12</v>
       </c>
+      <c r="AN6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP6" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU6" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="7" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
         <v>24</v>
       </c>
@@ -5264,8 +9001,32 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="AN7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO7" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP7" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS7" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU7" s="14" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="8" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
@@ -5367,8 +9128,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AN8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO8" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP8" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ8" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR8" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS8" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT8" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU8" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="9" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
@@ -5456,8 +9241,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="AN9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO9" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP9" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ9" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR9" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS9" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT9" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU9" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="10" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -5557,8 +9366,32 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="AN10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP10" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ10" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR10" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS10" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU10" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="11" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
@@ -5660,8 +9493,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="AN11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO11" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP11" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ11" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR11" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS11" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT11" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU11" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="12" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
@@ -5763,8 +9620,32 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="AN12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO12" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP12" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ12" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR12" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS12" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT12" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU12" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="13" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
@@ -5868,8 +9749,32 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="AN13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO13" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ13" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR13" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS13" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT13" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU13" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="14" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
@@ -5973,8 +9878,32 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="AN14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO14" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP14" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ14" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR14" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS14" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT14" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU14" s="14" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="15" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
@@ -6076,8 +10005,32 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="AN15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP15" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ15" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR15" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS15" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT15" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU15" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="16" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
@@ -6179,8 +10132,32 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="AN16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO16" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP16" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU16" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="17" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
@@ -6282,8 +10259,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="AN17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO17" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ17" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR17" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS17" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT17" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU17" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="18" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
@@ -6385,8 +10386,32 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="AN18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO18" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP18" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ18" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR18" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS18" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT18" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU18" s="14" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="19" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C19" s="13" t="s">
         <v>41</v>
       </c>
@@ -6470,8 +10495,32 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="AN19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO19" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP19" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ19" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR19" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS19" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT19" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU19" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="20" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C20" s="21" t="s">
         <v>86</v>
       </c>
@@ -6557,8 +10606,32 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="AN20" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO20" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP20" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ20" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR20" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS20" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT20" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU20" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="21" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C21" s="13" t="s">
         <v>45</v>
       </c>
@@ -6640,8 +10713,32 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="AN21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR21" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS21" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT21" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU21" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="22" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C22" s="15" t="s">
         <v>46</v>
       </c>
@@ -6723,8 +10820,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="AN22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO22" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP22" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ22" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR22" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS22" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT22" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU22" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="23" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C23" s="15" t="s">
         <v>47</v>
       </c>
@@ -6804,8 +10925,32 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="AN23" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO23" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP23" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ23" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS23" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT23" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU23" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="24" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C24" s="18" t="s">
         <v>56</v>
       </c>
@@ -6881,8 +11026,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="AN24" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO24" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP24" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ24" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR24" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS24" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT24" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU24" s="14" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="25" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C25" s="18" t="s">
         <v>58</v>
       </c>
@@ -6954,8 +11123,32 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="AN25" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP25" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ25" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR25" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS25" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT25" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU25" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="26" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C26" s="18" t="s">
         <v>57</v>
       </c>
@@ -7027,8 +11220,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AN26" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO26" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP26" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ26" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR26" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS26" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT26" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU26" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="27" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C27" s="18" t="s">
         <v>59</v>
       </c>
@@ -7096,8 +11313,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="AN27" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP27" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ27" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR27" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS27" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT27" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU27" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="28" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C28" s="19" t="s">
         <v>60</v>
       </c>
@@ -7165,8 +11406,32 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="AN28" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO28" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP28" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR28" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS28" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT28" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU28" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="29" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C29" s="19" t="s">
         <v>74</v>
       </c>
@@ -7232,8 +11497,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="AN29" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP29" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ29" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR29" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS29" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT29" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU29" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="30" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C30" s="19" t="s">
         <v>75</v>
       </c>
@@ -7299,8 +11588,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="AN30" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO30" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP30" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ30" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR30" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS30" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT30" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU30" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="31" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C31" s="21" t="s">
         <v>91</v>
       </c>
@@ -7362,8 +11675,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AN31" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO31" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP31" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ31" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR31" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS31" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT31" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU31" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="32" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C32" s="22" t="s">
         <v>95</v>
       </c>
@@ -7423,8 +11760,32 @@
         <f t="shared" ref="AJ32:AJ34" si="1">COUNTIF(D32:AI32,"출")</f>
         <v>1</v>
       </c>
+      <c r="AN32" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO32" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP32" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ32" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR32" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS32" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT32" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU32" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="33" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C33" s="22" t="s">
         <v>97</v>
       </c>
@@ -7480,8 +11841,32 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="AN33" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO33" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP33" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ33" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR33" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS33" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT33" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU33" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="34" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C34" s="22" t="s">
         <v>98</v>
       </c>
@@ -7535,10 +11920,34 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AN34" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO34" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP34" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ34" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR34" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS34" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT34" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU34" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="35" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C35" s="22" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -7563,44 +11972,73 @@
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
+      <c r="AA35" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB35" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC35" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD35" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="AE35" s="14" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="AF35" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AG35" s="14" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AH35" s="14" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AI35" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ35" s="22">
-        <f t="shared" ref="AJ35" si="2">COUNTIF(D35:AI35,"출")</f>
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="AJ35" s="22"/>
+      <c r="AN35" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO35" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP35" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ35" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR35" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS35" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT35" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU35" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="36" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C36" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
+    <row r="36" spans="3:47" x14ac:dyDescent="0.3">
+      <c r="C36" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
@@ -7621,8 +12059,8 @@
       <c r="AE36" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="AF36" s="22" t="s">
-        <v>115</v>
+      <c r="AF36" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="AG36" s="14" t="s">
         <v>134</v>
@@ -7633,25 +12071,45 @@
       <c r="AI36" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="AJ36" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="AJ36" s="23">
+        <f t="shared" ref="AJ36:AJ39" si="2">COUNTIF(D36:AI36,"출")</f>
+        <v>1</v>
+      </c>
+      <c r="AN36" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR36" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS36" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT36" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU36" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="37" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C37" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
+    <row r="37" spans="3:47" x14ac:dyDescent="0.3">
+      <c r="C37" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
@@ -7672,37 +12130,57 @@
       <c r="AE37" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="AF37" s="14" t="s">
-        <v>118</v>
+      <c r="AF37" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="AG37" s="14" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="AH37" s="14" t="s">
         <v>134</v>
       </c>
       <c r="AI37" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ37" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>134</v>
+      </c>
+      <c r="AJ37" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR37" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS37" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT37" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU37" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="38" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C38" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+    <row r="38" spans="3:47" x14ac:dyDescent="0.3">
+      <c r="C38" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
@@ -7723,24 +12201,44 @@
       <c r="AE38" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="AF38" s="22" t="s">
-        <v>115</v>
+      <c r="AF38" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="AG38" s="14" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AH38" s="14" t="s">
         <v>134</v>
       </c>
       <c r="AI38" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ38" s="22">
-        <f t="shared" ref="AJ38:AJ39" si="3">COUNTIF(D38:AI38,"출")</f>
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="AJ38" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AN38" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO38" s="14"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR38" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS38" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT38" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU38" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="39" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C39" s="22" t="s">
         <v>94</v>
       </c>
@@ -7783,1384 +12281,2662 @@
         <v>134</v>
       </c>
       <c r="AJ39" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AN39" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO39" s="14"/>
+      <c r="AP39" s="14"/>
+      <c r="AQ39" s="14"/>
+      <c r="AR39" s="14"/>
+      <c r="AS39" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT39" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU39" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="40" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C40" s="12">
         <f>COUNTA(C4:C39)</f>
         <v>36</v>
       </c>
       <c r="D40" s="12">
-        <f t="shared" ref="D40:AI40" si="4">COUNTIF(D4:D39,"출")</f>
+        <f>COUNTIF(D4:D39,"출")</f>
         <v>10</v>
       </c>
       <c r="E40" s="13">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E4:E39,"출")</f>
         <v>3</v>
       </c>
       <c r="F40" s="15">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F4:F39,"출")</f>
         <v>4</v>
       </c>
       <c r="G40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(G4:G39,"출")</f>
         <v>4</v>
       </c>
       <c r="H40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(H4:H39,"출")</f>
         <v>8</v>
       </c>
       <c r="I40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(I4:I39,"출")</f>
         <v>9</v>
       </c>
       <c r="J40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(J4:J39,"출")</f>
         <v>3</v>
       </c>
       <c r="K40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(K4:K39,"출")</f>
         <v>7</v>
       </c>
       <c r="L40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(L4:L39,"출")</f>
         <v>9</v>
       </c>
       <c r="M40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(M4:M39,"출")</f>
         <v>4</v>
       </c>
       <c r="N40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(N4:N39,"출")</f>
         <v>7</v>
       </c>
       <c r="O40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(O4:O39,"출")</f>
         <v>4</v>
       </c>
       <c r="P40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(P4:P39,"출")</f>
         <v>9</v>
       </c>
       <c r="Q40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(Q4:Q39,"출")</f>
         <v>9</v>
       </c>
       <c r="R40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(R4:R39,"출")</f>
         <v>7</v>
       </c>
       <c r="S40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(S4:S39,"출")</f>
         <v>3</v>
       </c>
       <c r="T40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(T4:T39,"출")</f>
         <v>7</v>
       </c>
       <c r="U40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(U4:U39,"출")</f>
         <v>10</v>
       </c>
       <c r="V40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(V4:V39,"출")</f>
         <v>5</v>
       </c>
       <c r="W40" s="18">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(W4:W39,"출")</f>
         <v>9</v>
       </c>
       <c r="X40" s="20">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(X4:X39,"출")</f>
         <v>11</v>
       </c>
       <c r="Y40" s="21">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(Y4:Y39,"출")</f>
         <v>12</v>
       </c>
       <c r="Z40" s="21">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(Z4:Z39,"출")</f>
         <v>7</v>
       </c>
       <c r="AA40" s="21">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(AA4:AA39,"출")</f>
         <v>11</v>
       </c>
       <c r="AB40" s="21">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(AB4:AB39,"출")</f>
         <v>10</v>
       </c>
       <c r="AC40" s="22">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>COUNTIF(AC4:AC39,"출")</f>
+        <v>14</v>
       </c>
       <c r="AD40" s="22">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(AD4:AD39,"출")</f>
         <v>6</v>
       </c>
       <c r="AE40" s="22">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(AE4:AE39,"출")</f>
         <v>10</v>
       </c>
       <c r="AF40" s="22">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(AF4:AF39,"출")</f>
         <v>9</v>
       </c>
       <c r="AG40" s="22">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(AG4:AG39,"출")</f>
         <v>5</v>
       </c>
       <c r="AH40" s="22">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(AH4:AH39,"출")</f>
         <v>6</v>
       </c>
       <c r="AI40" s="22">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(AI4:AI39,"출")</f>
         <v>7</v>
       </c>
       <c r="AJ40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AN2:AN3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Q23:S23 W22:W23 R21:T21 S18 S22 S14:S15 S16:T17 D29:R29 V21:AE21 W26:AC26 U13 R15:R17 W29:Y29 V16:Y16 AA16:AD16 X23:Y23 AA23:AC23 AA29:AC29 W27:Y27 AA27:AC27 Z27:Z29 U10:U11 V9:V12 S11:T12 R19:S20 Z16:Z20 Q4:Q22 P4:P23 V17:V20 T18:U20 W18:Y20 AA18:AD18 P24:Q24 Z23:Z24 D4:O24 D25:R27 T22:U24 W11:AC12 AG12 V14:AC15 AA20:AE20 AA19:AC19 AF19 X22:AC22 S25:AC25 AE22:AF23 AE11 AF14 AI14 AH18:AI18 AF16 AH29">
-    <cfRule type="containsText" dxfId="284" priority="461" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="584" priority="761" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="462" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="583" priority="762" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23:S23 W22:W23 R21:T21 S18 S22 S14:S15 S16:T17 D29:R29 V21:AE21 W26:AC26 U13 R15:R17 W29:Y29 V16:Y16 AA16:AD16 X23:Y23 AA23:AC23 AA29:AC29 W27:Y27 AA27:AC27 Z27:Z29 U10:U11 V9:V12 S11:T12 R19:S20 Z16:Z20 Q4:Q22 P4:P23 V17:V20 T18:U20 W18:Y20 AA18:AD18 P24:Q24 Z23:Z24 D4:O24 D25:R27 T22:U24 W11:AC12 AG12 V14:AC15 AA20:AE20 AA19:AC19 AF19 X22:AC22 S25:AC25 AE22:AF23 AE11 AF14 AI14 AH18:AI18 AF16 AH29">
-    <cfRule type="containsText" dxfId="282" priority="460" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="582" priority="760" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R5 R22 R18 R13:R14 R7">
-    <cfRule type="containsText" dxfId="281" priority="428" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="581" priority="728" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",R4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="429" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="580" priority="729" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",R4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R5 R22 R18 R13:R14 R7">
-    <cfRule type="containsText" dxfId="279" priority="427" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="579" priority="727" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",R4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="containsText" dxfId="278" priority="413" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="578" priority="713" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",R12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="414" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="577" priority="714" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",R12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="containsText" dxfId="276" priority="412" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="576" priority="712" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",R12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="containsText" dxfId="275" priority="410" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="575" priority="710" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",R6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="411" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="574" priority="711" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",R6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="containsText" dxfId="273" priority="409" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="573" priority="709" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",R6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R11">
-    <cfRule type="containsText" dxfId="272" priority="407" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="572" priority="707" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",R8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="408" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="571" priority="708" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",R8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R11">
-    <cfRule type="containsText" dxfId="270" priority="406" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="570" priority="706" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",R8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:T13 S4:T8 T9:T10 V13:AD13 V4:AF4 V5:AC8 AD5:AD12 AH4:AI4 AE5:AF5 AI5 AE6:AE7 AG7 AG13:AH13 AI7">
-    <cfRule type="containsText" dxfId="269" priority="386" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="569" priority="686" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",S4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="387" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="568" priority="687" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",S4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:T13 S4:T8 T9:T10 V13:AD13 V4:AF4 V5:AC8 AD5:AD12 AH4:AI4 AE5:AF5 AI5 AE6:AE7 AG7 AG13:AH13 AI7">
-    <cfRule type="containsText" dxfId="267" priority="385" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="567" priority="685" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",S4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:V26 T25:U25 S27:U27 S29:U29 V24:Y24 AA24:AD24 AI24">
-    <cfRule type="containsText" dxfId="266" priority="383" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="566" priority="683" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",S24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="384" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="565" priority="684" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",S24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:V26 T25:U25 S27:U27 S29:U29 V24:Y24 AA24:AD24 AI24">
-    <cfRule type="containsText" dxfId="264" priority="382" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="564" priority="682" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",S24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:S10 W9:AC9">
-    <cfRule type="containsText" dxfId="263" priority="377" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="563" priority="677" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",S9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="378" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="562" priority="678" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",S9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:S10 W9:AC9">
-    <cfRule type="containsText" dxfId="261" priority="376" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="561" priority="676" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",S9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24">
-    <cfRule type="containsText" dxfId="260" priority="371" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="560" priority="671" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",R24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="372" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="559" priority="672" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",R24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24">
-    <cfRule type="containsText" dxfId="258" priority="370" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="558" priority="670" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",R24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24">
-    <cfRule type="containsText" dxfId="257" priority="368" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="557" priority="668" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",S24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="369" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="556" priority="669" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",S24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24">
-    <cfRule type="containsText" dxfId="255" priority="367" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="555" priority="667" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",S24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22:V23">
-    <cfRule type="containsText" dxfId="254" priority="362" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="554" priority="662" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",V22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="363" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="553" priority="663" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",V22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22:V23">
-    <cfRule type="containsText" dxfId="252" priority="361" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="552" priority="661" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",V22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14 U21 U16:U17">
-    <cfRule type="containsText" dxfId="251" priority="356" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="551" priority="656" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="357" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="550" priority="657" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",U14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14 U21 U16:U17">
-    <cfRule type="containsText" dxfId="249" priority="355" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="549" priority="655" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",U14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U9">
-    <cfRule type="containsText" dxfId="248" priority="353" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="548" priority="653" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",U4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="354" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="547" priority="654" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",U4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U9">
-    <cfRule type="containsText" dxfId="246" priority="352" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="546" priority="652" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",U4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="containsText" dxfId="245" priority="347" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="545" priority="647" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="348" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="544" priority="648" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",U12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="containsText" dxfId="243" priority="346" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="543" priority="646" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",U12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15">
-    <cfRule type="containsText" dxfId="242" priority="344" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="542" priority="644" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",U15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="345" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="541" priority="645" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",U15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15">
-    <cfRule type="containsText" dxfId="240" priority="343" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="540" priority="643" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",U15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:T15">
-    <cfRule type="containsText" dxfId="239" priority="332" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="539" priority="632" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="333" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="538" priority="633" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",T14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:T15">
-    <cfRule type="containsText" dxfId="237" priority="331" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="537" priority="631" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",T14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25">
-    <cfRule type="containsText" dxfId="236" priority="323" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="536" priority="623" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",V25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="324" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="535" priority="624" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",V25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25">
-    <cfRule type="containsText" dxfId="234" priority="322" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="534" priority="622" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",V25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27 V29">
-    <cfRule type="containsText" dxfId="233" priority="320" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="533" priority="620" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",V27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="321" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="532" priority="621" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",V27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27 V29">
-    <cfRule type="containsText" dxfId="231" priority="319" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="531" priority="619" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",V27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10:AC10 AH10">
-    <cfRule type="containsText" dxfId="230" priority="314" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="530" priority="614" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",W10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="315" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="529" priority="615" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",W10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10:AC10 AH10">
-    <cfRule type="containsText" dxfId="228" priority="313" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="528" priority="613" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",W10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:Y17 AA17:AC17 AE17">
-    <cfRule type="containsText" dxfId="227" priority="311" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="527" priority="611" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",W17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="312" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="526" priority="612" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",W17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:Y17 AA17:AC17 AE17">
-    <cfRule type="containsText" dxfId="225" priority="310" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="525" priority="610" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",W17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:R28">
-    <cfRule type="containsText" dxfId="224" priority="284" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="524" priority="584" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="285" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="523" priority="585" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:R28">
-    <cfRule type="containsText" dxfId="222" priority="283" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="522" priority="583" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:U28 W28:Y28 AA28:AC28 AE28:AF28">
-    <cfRule type="containsText" dxfId="221" priority="281" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="521" priority="581" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",S28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="282" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="520" priority="582" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",S28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:U28 W28:Y28 AA28:AC28 AE28:AF28">
-    <cfRule type="containsText" dxfId="219" priority="280" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="519" priority="580" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",S28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28">
-    <cfRule type="containsText" dxfId="218" priority="278" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="518" priority="578" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",V28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="279" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="517" priority="579" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",V28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28">
-    <cfRule type="containsText" dxfId="216" priority="277" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="516" priority="577" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",V28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:R31 D37:R37">
-    <cfRule type="containsText" dxfId="215" priority="275" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="515" priority="575" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="276" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="514" priority="576" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:R31 D37:R37">
-    <cfRule type="containsText" dxfId="213" priority="274" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="513" priority="574" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:U31 W30:AC31 AI37 W37:AG37 S37:U37">
-    <cfRule type="containsText" dxfId="212" priority="272" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="512" priority="572" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",S30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="273" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="511" priority="573" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",S30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:U31 W30:AC31 AI37 W37:AG37 S37:U37">
-    <cfRule type="containsText" dxfId="210" priority="271" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="510" priority="571" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",S30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V30:V31 V37">
-    <cfRule type="containsText" dxfId="209" priority="269" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="509" priority="569" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",V30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="270" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="508" priority="570" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",V30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V30:V31 V37">
-    <cfRule type="containsText" dxfId="207" priority="268" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="507" priority="568" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",V30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25:AD31">
-    <cfRule type="containsText" dxfId="206" priority="251" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="506" priority="551" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AD25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="252" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="505" priority="552" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AD25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25:AD31">
-    <cfRule type="containsText" dxfId="204" priority="250" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="504" priority="550" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AD25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14:AD15">
-    <cfRule type="containsText" dxfId="203" priority="263" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="503" priority="563" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AD14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="264" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="502" priority="564" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AD14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14:AD15">
-    <cfRule type="containsText" dxfId="201" priority="262" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="501" priority="562" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AD14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17">
-    <cfRule type="containsText" dxfId="200" priority="260" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="500" priority="560" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AD17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="261" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="499" priority="561" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AD17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17">
-    <cfRule type="containsText" dxfId="198" priority="259" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="498" priority="559" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AD17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD19">
-    <cfRule type="containsText" dxfId="197" priority="257" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="497" priority="557" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AD19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="258" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="496" priority="558" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AD19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD19">
-    <cfRule type="containsText" dxfId="195" priority="256" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="495" priority="556" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AD19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD22:AD23">
-    <cfRule type="containsText" dxfId="194" priority="254" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="494" priority="554" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AD22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="255" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="493" priority="555" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AD22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD22:AD23">
-    <cfRule type="containsText" dxfId="192" priority="253" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="492" priority="553" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AD22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AG6">
-    <cfRule type="containsText" dxfId="191" priority="248" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="491" priority="548" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AG4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="249" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="490" priority="549" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AG4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AG6">
-    <cfRule type="containsText" dxfId="189" priority="247" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="489" priority="547" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AG4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5:AH9">
-    <cfRule type="containsText" dxfId="188" priority="245" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="488" priority="545" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AH5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="246" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="487" priority="546" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AH5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5:AH9">
-    <cfRule type="containsText" dxfId="186" priority="244" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="486" priority="544" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AH5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AI13">
-    <cfRule type="containsText" dxfId="185" priority="242" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="485" priority="542" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AI8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="243" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="484" priority="543" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AI8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AI13">
-    <cfRule type="containsText" dxfId="183" priority="241" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="483" priority="541" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AI8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AE10">
-    <cfRule type="containsText" dxfId="182" priority="239" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="482" priority="539" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AE8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="240" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="481" priority="540" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AE8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AE10">
-    <cfRule type="containsText" dxfId="180" priority="238" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="480" priority="538" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AE8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AF13">
-    <cfRule type="containsText" dxfId="179" priority="236" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="479" priority="536" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AF6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="237" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="478" priority="537" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AF6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AF13">
-    <cfRule type="containsText" dxfId="177" priority="235" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="477" priority="535" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AF6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI6">
-    <cfRule type="containsText" dxfId="176" priority="233" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="476" priority="533" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AI6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="234" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="475" priority="534" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AI6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI6">
-    <cfRule type="containsText" dxfId="174" priority="232" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="474" priority="532" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AI6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AH12">
-    <cfRule type="containsText" dxfId="173" priority="230" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="473" priority="530" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AH11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="231" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="472" priority="531" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AH11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AH12">
-    <cfRule type="containsText" dxfId="171" priority="229" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="471" priority="529" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AH11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14:AH17">
-    <cfRule type="containsText" dxfId="170" priority="227" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="470" priority="527" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AH14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="228" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="469" priority="528" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AH14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14:AH17">
-    <cfRule type="containsText" dxfId="168" priority="226" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="468" priority="526" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AH14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG14:AG31">
-    <cfRule type="containsText" dxfId="167" priority="224" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="467" priority="524" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AG14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="225" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="466" priority="525" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AG14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG14:AG31">
-    <cfRule type="containsText" dxfId="165" priority="223" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="465" priority="523" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AG14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:AE16">
-    <cfRule type="containsText" dxfId="164" priority="221" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="464" priority="521" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AE12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="222" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="463" priority="522" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AE12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:AE16">
-    <cfRule type="containsText" dxfId="162" priority="220" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="462" priority="520" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AE12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF15">
-    <cfRule type="containsText" dxfId="161" priority="218" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="461" priority="518" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AF15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="219" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="460" priority="519" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AF15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF15">
-    <cfRule type="containsText" dxfId="159" priority="217" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="459" priority="517" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AF15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AE19">
-    <cfRule type="containsText" dxfId="158" priority="215" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="458" priority="515" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AE18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="216" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="457" priority="516" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AE18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AE19">
-    <cfRule type="containsText" dxfId="156" priority="214" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="456" priority="514" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AE18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF20:AF21">
-    <cfRule type="containsText" dxfId="155" priority="212" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="455" priority="512" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AF20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="213" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="454" priority="513" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AF20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF20:AF21">
-    <cfRule type="containsText" dxfId="153" priority="211" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="453" priority="511" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AF20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AF18">
-    <cfRule type="containsText" dxfId="152" priority="209" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="452" priority="509" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AF17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="210" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="451" priority="510" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AF17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AF18">
-    <cfRule type="containsText" dxfId="150" priority="208" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="450" priority="508" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AF17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI15:AI17">
-    <cfRule type="containsText" dxfId="149" priority="206" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="449" priority="506" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AI15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="207" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="448" priority="507" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AI15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI15:AI17">
-    <cfRule type="containsText" dxfId="147" priority="205" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="447" priority="505" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AI15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19:AI23">
-    <cfRule type="containsText" dxfId="146" priority="203" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="446" priority="503" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AI19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="204" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="445" priority="504" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AI19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19:AI23">
-    <cfRule type="containsText" dxfId="144" priority="202" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="444" priority="502" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AI19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19:AH28">
-    <cfRule type="containsText" dxfId="143" priority="200" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="443" priority="500" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AH19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="201" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="442" priority="501" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AH19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19:AH28">
-    <cfRule type="containsText" dxfId="141" priority="199" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="441" priority="499" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AH19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE24:AE27">
-    <cfRule type="containsText" dxfId="140" priority="197" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="440" priority="497" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AE24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="198" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="439" priority="498" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AE24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE24:AE27">
-    <cfRule type="containsText" dxfId="138" priority="196" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="438" priority="496" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AE24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF24:AF27">
-    <cfRule type="containsText" dxfId="137" priority="194" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="437" priority="494" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AF24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="195" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="436" priority="495" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AF24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF24:AF27">
-    <cfRule type="containsText" dxfId="135" priority="193" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="435" priority="493" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AF24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI25:AI31">
-    <cfRule type="containsText" dxfId="134" priority="191" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="434" priority="491" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AI25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="192" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="433" priority="492" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AI25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI25:AI31">
-    <cfRule type="containsText" dxfId="132" priority="190" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="432" priority="490" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AI25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG11">
-    <cfRule type="containsText" dxfId="131" priority="188" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="431" priority="488" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AG8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="189" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="430" priority="489" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AG8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG11">
-    <cfRule type="containsText" dxfId="129" priority="187" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="429" priority="487" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AG8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH30:AH31 AH37">
-    <cfRule type="containsText" dxfId="128" priority="185" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="428" priority="485" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AH30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="186" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="427" priority="486" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AH30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH30:AH31 AH37">
-    <cfRule type="containsText" dxfId="126" priority="184" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="426" priority="484" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AH30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE29:AE31">
-    <cfRule type="containsText" dxfId="125" priority="182" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="425" priority="482" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AE29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="183" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="424" priority="483" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AE29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE29:AE31">
-    <cfRule type="containsText" dxfId="123" priority="181" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="423" priority="481" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AE29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF29:AF31">
-    <cfRule type="containsText" dxfId="122" priority="179" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="422" priority="479" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AF29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="180" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="421" priority="480" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AF29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF29:AF31">
-    <cfRule type="containsText" dxfId="120" priority="178" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="420" priority="478" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AF29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH39">
-    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="419" priority="301" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AH39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH39">
-    <cfRule type="containsText" dxfId="118" priority="2" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="418" priority="302" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AH39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="3" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="417" priority="303" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AH39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="containsText" dxfId="116" priority="53" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="416" priority="353" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="54" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="415" priority="354" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="containsText" dxfId="114" priority="52" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="414" priority="352" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W35:AF35 S35:U35">
-    <cfRule type="containsText" dxfId="113" priority="50" operator="containsText" text="결">
+  <conditionalFormatting sqref="W35:AC35 S35:U35">
+    <cfRule type="containsText" dxfId="413" priority="350" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",S35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="51" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="412" priority="351" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",S35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W35:AF35 S35:U35">
-    <cfRule type="containsText" dxfId="111" priority="49" operator="containsText" text="입">
+  <conditionalFormatting sqref="W35:AC35 S35:U35">
+    <cfRule type="containsText" dxfId="411" priority="349" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",S35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="containsText" dxfId="110" priority="47" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="410" priority="347" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",V35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="48" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="409" priority="348" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",V35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="containsText" dxfId="108" priority="46" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="408" priority="346" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",V35)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D32:R32">
+    <cfRule type="containsText" dxfId="398" priority="443" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="397" priority="444" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:R32">
+    <cfRule type="containsText" dxfId="396" priority="442" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W32:AG32 S32:U32">
+    <cfRule type="containsText" dxfId="395" priority="440" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",S32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="394" priority="441" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",S32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W32:AG32 S32:U32">
+    <cfRule type="containsText" dxfId="393" priority="439" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",S32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32">
+    <cfRule type="containsText" dxfId="392" priority="437" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",V32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="391" priority="438" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",V32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32">
+    <cfRule type="containsText" dxfId="390" priority="436" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",V32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI32">
+    <cfRule type="containsText" dxfId="389" priority="434" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AI32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="388" priority="435" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AI32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI32">
+    <cfRule type="containsText" dxfId="387" priority="433" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AI32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH32">
+    <cfRule type="containsText" dxfId="386" priority="431" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AH32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="385" priority="432" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AH32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH32">
+    <cfRule type="containsText" dxfId="384" priority="430" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AH32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:R36">
+    <cfRule type="containsText" dxfId="383" priority="428" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="382" priority="429" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:R36">
+    <cfRule type="containsText" dxfId="381" priority="427" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36:U36 W36:AE36">
+    <cfRule type="containsText" dxfId="380" priority="425" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",S36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="379" priority="426" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",S36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36:U36 W36:AE36">
+    <cfRule type="containsText" dxfId="378" priority="424" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",S36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V36">
+    <cfRule type="containsText" dxfId="377" priority="422" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",V36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="376" priority="423" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",V36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V36">
+    <cfRule type="containsText" dxfId="375" priority="421" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",V36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36">
+    <cfRule type="containsText" dxfId="374" priority="419" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AG36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="373" priority="420" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AG36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36">
+    <cfRule type="containsText" dxfId="372" priority="418" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AG36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI36">
+    <cfRule type="containsText" dxfId="371" priority="416" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AI36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="370" priority="417" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AI36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI36">
+    <cfRule type="containsText" dxfId="369" priority="415" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AI36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36">
+    <cfRule type="containsText" dxfId="368" priority="413" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AH36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="367" priority="414" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AH36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36">
+    <cfRule type="containsText" dxfId="366" priority="412" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AH36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF36">
+    <cfRule type="containsText" dxfId="365" priority="410" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AF36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="364" priority="411" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AF36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF36">
+    <cfRule type="containsText" dxfId="363" priority="409" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AF36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:R34">
+    <cfRule type="containsText" dxfId="362" priority="335" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="361" priority="336" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:R34">
+    <cfRule type="containsText" dxfId="360" priority="334" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S34:U34 AF34:AG34">
+    <cfRule type="containsText" dxfId="359" priority="332" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",S34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="358" priority="333" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",S34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S34:U34 AF34:AG34">
+    <cfRule type="containsText" dxfId="357" priority="331" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",S34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:R38">
+    <cfRule type="containsText" dxfId="356" priority="398" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="355" priority="399" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:R38">
+    <cfRule type="containsText" dxfId="354" priority="397" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W38:AE38 S38:U38">
+    <cfRule type="containsText" dxfId="353" priority="395" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",S38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="352" priority="396" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",S38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W38:AE38 S38:U38">
+    <cfRule type="containsText" dxfId="351" priority="394" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",S38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V38">
+    <cfRule type="containsText" dxfId="350" priority="392" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",V38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="349" priority="393" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",V38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V38">
+    <cfRule type="containsText" dxfId="348" priority="391" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",V38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG38">
+    <cfRule type="containsText" dxfId="347" priority="389" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AG38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="346" priority="390" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AG38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG38">
+    <cfRule type="containsText" dxfId="345" priority="388" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AG38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI38">
+    <cfRule type="containsText" dxfId="344" priority="386" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AI38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="343" priority="387" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AI38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI38">
+    <cfRule type="containsText" dxfId="342" priority="385" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AI38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH38">
+    <cfRule type="containsText" dxfId="341" priority="383" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AH38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="340" priority="384" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AH38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH38">
+    <cfRule type="containsText" dxfId="339" priority="382" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AH38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF38">
+    <cfRule type="containsText" dxfId="338" priority="380" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AF38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="337" priority="381" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AF38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF38">
+    <cfRule type="containsText" dxfId="336" priority="379" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AF38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:R33">
+    <cfRule type="containsText" dxfId="335" priority="377" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",D33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="378" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",D33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:R33">
+    <cfRule type="containsText" dxfId="333" priority="376" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",D33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W33:AI33 S33:U33">
+    <cfRule type="containsText" dxfId="332" priority="374" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",S33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="331" priority="375" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",S33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W33:AI33 S33:U33">
+    <cfRule type="containsText" dxfId="330" priority="373" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",S33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V33">
+    <cfRule type="containsText" dxfId="329" priority="371" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",V33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="328" priority="372" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",V33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V33">
+    <cfRule type="containsText" dxfId="327" priority="370" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",V33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V34">
+    <cfRule type="containsText" dxfId="326" priority="329" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",V34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="325" priority="330" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",V34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V34">
+    <cfRule type="containsText" dxfId="324" priority="328" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",V34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W34:AC34 AE34">
+    <cfRule type="containsText" dxfId="323" priority="326" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",W34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="322" priority="327" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",W34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W34:AC34 AE34">
+    <cfRule type="containsText" dxfId="321" priority="325" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",W34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD34">
+    <cfRule type="containsText" dxfId="320" priority="323" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AD34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="319" priority="324" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AD34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD34">
+    <cfRule type="containsText" dxfId="318" priority="322" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AD34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH34">
+    <cfRule type="containsText" dxfId="317" priority="320" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AH34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="316" priority="321" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AH34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH34">
+    <cfRule type="containsText" dxfId="315" priority="319" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AH34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI34">
+    <cfRule type="containsText" dxfId="314" priority="317" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AI34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="313" priority="318" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AI34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI34">
+    <cfRule type="containsText" dxfId="312" priority="316" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AI34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:R39">
+    <cfRule type="containsText" dxfId="311" priority="314" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="310" priority="315" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:R39">
+    <cfRule type="containsText" dxfId="309" priority="313" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W39:AG39 S39:U39">
+    <cfRule type="containsText" dxfId="308" priority="311" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",S39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="307" priority="312" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",S39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W39:AG39 S39:U39">
+    <cfRule type="containsText" dxfId="306" priority="310" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",S39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V39">
+    <cfRule type="containsText" dxfId="305" priority="308" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",V39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="304" priority="309" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",V39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V39">
+    <cfRule type="containsText" dxfId="303" priority="307" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",V39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI39">
+    <cfRule type="containsText" dxfId="302" priority="305" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AI39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="306" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AI39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI39">
+    <cfRule type="containsText" dxfId="300" priority="304" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AI39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:R38">
+    <cfRule type="containsText" dxfId="299" priority="299" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="300" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:R38">
+    <cfRule type="containsText" dxfId="297" priority="298" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI38 W38:AG38 S38:U38">
+    <cfRule type="containsText" dxfId="296" priority="296" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",S38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="295" priority="297" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",S38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI38 W38:AG38 S38:U38">
+    <cfRule type="containsText" dxfId="294" priority="295" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",S38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V38">
+    <cfRule type="containsText" dxfId="293" priority="293" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",V38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="292" priority="294" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",V38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V38">
+    <cfRule type="containsText" dxfId="291" priority="292" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",V38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH38">
+    <cfRule type="containsText" dxfId="290" priority="290" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AH38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="289" priority="291" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AH38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH38">
+    <cfRule type="containsText" dxfId="288" priority="289" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AH38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:R36">
+    <cfRule type="containsText" dxfId="287" priority="266" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="286" priority="267" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:R36">
+    <cfRule type="containsText" dxfId="285" priority="265" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W36:AF36 S36:U36">
+    <cfRule type="containsText" dxfId="284" priority="263" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",S36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="283" priority="264" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",S36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W36:AF36 S36:U36">
+    <cfRule type="containsText" dxfId="282" priority="262" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",S36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V36">
+    <cfRule type="containsText" dxfId="281" priority="260" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",V36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="280" priority="261" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",V36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V36">
+    <cfRule type="containsText" dxfId="279" priority="259" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",V36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36">
+    <cfRule type="containsText" dxfId="278" priority="257" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AG36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="277" priority="258" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AG36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36">
+    <cfRule type="containsText" dxfId="276" priority="256" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AG36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI36">
+    <cfRule type="containsText" dxfId="275" priority="254" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AI36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="274" priority="255" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AI36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI36">
+    <cfRule type="containsText" dxfId="273" priority="253" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AI36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36">
+    <cfRule type="containsText" dxfId="272" priority="251" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AH36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="271" priority="252" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AH36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36">
+    <cfRule type="containsText" dxfId="270" priority="250" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AH36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:R37">
+    <cfRule type="containsText" dxfId="269" priority="287" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="268" priority="288" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:R37">
+    <cfRule type="containsText" dxfId="267" priority="286" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S37:U37 W37:AE37">
+    <cfRule type="containsText" dxfId="266" priority="284" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",S37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="265" priority="285" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",S37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S37:U37 W37:AE37">
+    <cfRule type="containsText" dxfId="264" priority="283" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",S37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V37">
+    <cfRule type="containsText" dxfId="263" priority="281" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",V37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="262" priority="282" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",V37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V37">
+    <cfRule type="containsText" dxfId="261" priority="280" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",V37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG37">
+    <cfRule type="containsText" dxfId="260" priority="278" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AG37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="259" priority="279" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AG37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG37">
+    <cfRule type="containsText" dxfId="258" priority="277" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AG37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI37">
+    <cfRule type="containsText" dxfId="257" priority="275" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AI37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="276" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AI37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI37">
+    <cfRule type="containsText" dxfId="255" priority="274" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AI37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH37">
+    <cfRule type="containsText" dxfId="254" priority="272" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AH37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="253" priority="273" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AH37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH37">
+    <cfRule type="containsText" dxfId="252" priority="271" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AH37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF37">
+    <cfRule type="containsText" dxfId="251" priority="269" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AF37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="250" priority="270" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AF37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF37">
+    <cfRule type="containsText" dxfId="249" priority="268" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AF37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD35">
+    <cfRule type="containsText" dxfId="248" priority="248" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AD35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="247" priority="249" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AD35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD35">
+    <cfRule type="containsText" dxfId="246" priority="247" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AD35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
+    <cfRule type="containsText" dxfId="245" priority="245" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AE35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="244" priority="246" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AE35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
+    <cfRule type="containsText" dxfId="243" priority="244" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AE35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="containsText" dxfId="242" priority="242" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AF35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="241" priority="243" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AF35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="containsText" dxfId="240" priority="241" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AF35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AG35">
-    <cfRule type="containsText" dxfId="107" priority="44" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="239" priority="239" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AG35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="45" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="238" priority="240" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AG35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG35">
-    <cfRule type="containsText" dxfId="105" priority="43" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="237" priority="238" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AG35)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="containsText" dxfId="236" priority="236" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AH35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="235" priority="237" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AH35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="containsText" dxfId="234" priority="235" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AH35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AI35">
-    <cfRule type="containsText" dxfId="104" priority="41" operator="containsText" text="결">
+    <cfRule type="containsText" dxfId="233" priority="233" operator="containsText" text="결">
       <formula>NOT(ISERROR(SEARCH("결",AI35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="42" operator="containsText" text="출">
+    <cfRule type="containsText" dxfId="232" priority="234" operator="containsText" text="출">
       <formula>NOT(ISERROR(SEARCH("출",AI35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI35">
-    <cfRule type="containsText" dxfId="102" priority="40" operator="containsText" text="입">
+    <cfRule type="containsText" dxfId="231" priority="232" operator="containsText" text="입">
       <formula>NOT(ISERROR(SEARCH("입",AI35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH35">
-    <cfRule type="containsText" dxfId="101" priority="38" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AH35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="39" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AH35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH35">
-    <cfRule type="containsText" dxfId="99" priority="37" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AH35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:R32">
-    <cfRule type="containsText" dxfId="98" priority="143" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="144" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:R32">
-    <cfRule type="containsText" dxfId="96" priority="142" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W32:AG32 S32:U32">
-    <cfRule type="containsText" dxfId="95" priority="140" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",S32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="141" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",S32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W32:AG32 S32:U32">
-    <cfRule type="containsText" dxfId="93" priority="139" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",S32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V32">
-    <cfRule type="containsText" dxfId="92" priority="137" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",V32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="138" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",V32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V32">
-    <cfRule type="containsText" dxfId="90" priority="136" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",V32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI32">
-    <cfRule type="containsText" dxfId="89" priority="134" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AI32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="135" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AI32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI32">
-    <cfRule type="containsText" dxfId="87" priority="133" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AI32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH32">
-    <cfRule type="containsText" dxfId="86" priority="131" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AH32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="132" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AH32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH32">
-    <cfRule type="containsText" dxfId="84" priority="130" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AH32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:R36">
-    <cfRule type="containsText" dxfId="83" priority="128" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="129" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:R36">
-    <cfRule type="containsText" dxfId="81" priority="127" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36:U36 W36:AE36">
-    <cfRule type="containsText" dxfId="80" priority="125" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",S36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="126" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",S36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36:U36 W36:AE36">
-    <cfRule type="containsText" dxfId="78" priority="124" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",S36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V36">
-    <cfRule type="containsText" dxfId="77" priority="122" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",V36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="123" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",V36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V36">
-    <cfRule type="containsText" dxfId="75" priority="121" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",V36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG36">
-    <cfRule type="containsText" dxfId="74" priority="119" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AG36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="120" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AG36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG36">
-    <cfRule type="containsText" dxfId="72" priority="118" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AG36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI36">
-    <cfRule type="containsText" dxfId="71" priority="116" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AI36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="117" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AI36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI36">
-    <cfRule type="containsText" dxfId="69" priority="115" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AI36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH36">
-    <cfRule type="containsText" dxfId="68" priority="113" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AH36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="114" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AH36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH36">
-    <cfRule type="containsText" dxfId="66" priority="112" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AH36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF36">
-    <cfRule type="containsText" dxfId="65" priority="110" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AF36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="111" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AF36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF36">
-    <cfRule type="containsText" dxfId="63" priority="109" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AF36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:R34">
-    <cfRule type="containsText" dxfId="62" priority="35" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="36" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:R34">
-    <cfRule type="containsText" dxfId="60" priority="34" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S34:U34 AF34:AG34">
-    <cfRule type="containsText" dxfId="59" priority="32" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",S34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="33" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",S34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S34:U34 AF34:AG34">
-    <cfRule type="containsText" dxfId="57" priority="31" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",S34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:R38">
-    <cfRule type="containsText" dxfId="56" priority="98" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="99" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:R38">
-    <cfRule type="containsText" dxfId="54" priority="97" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W38:AE38 S38:U38">
-    <cfRule type="containsText" dxfId="53" priority="95" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",S38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="96" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",S38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W38:AE38 S38:U38">
-    <cfRule type="containsText" dxfId="51" priority="94" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",S38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V38">
-    <cfRule type="containsText" dxfId="50" priority="92" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",V38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="93" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",V38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V38">
-    <cfRule type="containsText" dxfId="48" priority="91" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",V38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG38">
-    <cfRule type="containsText" dxfId="47" priority="89" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AG38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="90" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AG38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG38">
-    <cfRule type="containsText" dxfId="45" priority="88" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AG38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI38">
-    <cfRule type="containsText" dxfId="44" priority="86" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AI38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="87" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AI38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI38">
-    <cfRule type="containsText" dxfId="42" priority="85" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AI38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH38">
-    <cfRule type="containsText" dxfId="41" priority="83" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AH38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="84" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AH38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH38">
-    <cfRule type="containsText" dxfId="39" priority="82" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AH38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF38">
-    <cfRule type="containsText" dxfId="38" priority="80" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AF38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="81" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AF38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF38">
-    <cfRule type="containsText" dxfId="36" priority="79" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AF38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:R33">
-    <cfRule type="containsText" dxfId="35" priority="77" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="78" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:R33">
-    <cfRule type="containsText" dxfId="33" priority="76" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W33:AI33 S33:U33">
-    <cfRule type="containsText" dxfId="32" priority="74" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",S33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="75" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",S33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W33:AI33 S33:U33">
-    <cfRule type="containsText" dxfId="30" priority="73" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",S33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V33">
-    <cfRule type="containsText" dxfId="29" priority="71" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",V33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="72" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",V33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V33">
-    <cfRule type="containsText" dxfId="27" priority="70" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",V33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V34">
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",V34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="30" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",V34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V34">
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",V34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W34:AC34 AE34">
-    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",W34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",W34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W34:AC34 AE34">
-    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",W34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD34">
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AD34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="24" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AD34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD34">
-    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AD34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH34">
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AH34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AH34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH34">
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AH34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI34">
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AI34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AI34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI34">
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AI34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:R39">
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:R39">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W39:AG39 S39:U39">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",S39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",S39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W39:AG39 S39:U39">
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",S39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V39">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",V39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",V39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V39">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",V39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI39">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="결">
-      <formula>NOT(ISERROR(SEARCH("결",AI39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="출">
-      <formula>NOT(ISERROR(SEARCH("출",AI39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI39">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="입">
-      <formula>NOT(ISERROR(SEARCH("입",AI39)))</formula>
+  <conditionalFormatting sqref="AO16:AP16 AO29 AO18:AP18 AO11:AO12 AS12 AO14:AO15 AO20:AQ21 AO19 AR19 AO22:AO23 AO25:AO27 AQ22:AR23 AQ11 AR14 AU14 AT18:AU18 AR16 AT29">
+    <cfRule type="containsText" dxfId="230" priority="230" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="231" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO16:AP16 AO29 AO18:AP18 AO11:AO12 AS12 AO14:AO15 AO20:AQ21 AO19 AR19 AO22:AO23 AO25:AO27 AQ22:AR23 AQ11 AR14 AU14 AT18:AU18 AR16 AT29">
+    <cfRule type="containsText" dxfId="228" priority="229" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO13:AP13 AO4:AR4 AO5:AO8 AP5:AP12 AT4:AU4 AQ5:AR5 AU5 AQ6:AQ7 AS7 AS13:AT13 AU7">
+    <cfRule type="containsText" dxfId="227" priority="227" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="226" priority="228" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO13:AP13 AO4:AR4 AO5:AO8 AP5:AP12 AT4:AU4 AQ5:AR5 AU5 AQ6:AQ7 AS7 AS13:AT13 AU7">
+    <cfRule type="containsText" dxfId="225" priority="226" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO24:AP24 AU24">
+    <cfRule type="containsText" dxfId="224" priority="224" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="223" priority="225" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO24:AP24 AU24">
+    <cfRule type="containsText" dxfId="222" priority="223" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO9">
+    <cfRule type="containsText" dxfId="221" priority="221" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="220" priority="222" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO9">
+    <cfRule type="containsText" dxfId="219" priority="220" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO10 AT10">
+    <cfRule type="containsText" dxfId="218" priority="218" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="219" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO10 AT10">
+    <cfRule type="containsText" dxfId="216" priority="217" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO17 AQ17">
+    <cfRule type="containsText" dxfId="215" priority="215" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="216" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO17 AQ17">
+    <cfRule type="containsText" dxfId="213" priority="214" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO28 AQ28:AR28">
+    <cfRule type="containsText" dxfId="212" priority="212" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="211" priority="213" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO28 AQ28:AR28">
+    <cfRule type="containsText" dxfId="210" priority="211" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO30:AO31 AU37 AO37:AS37">
+    <cfRule type="containsText" dxfId="209" priority="209" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="208" priority="210" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO30:AO31 AU37 AO37:AS37">
+    <cfRule type="containsText" dxfId="207" priority="208" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25:AP31">
+    <cfRule type="containsText" dxfId="206" priority="194" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AP25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="195" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AP25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25:AP31">
+    <cfRule type="containsText" dxfId="204" priority="193" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AP25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP14:AP15">
+    <cfRule type="containsText" dxfId="203" priority="206" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AP14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="207" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AP14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP14:AP15">
+    <cfRule type="containsText" dxfId="201" priority="205" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AP14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP17">
+    <cfRule type="containsText" dxfId="200" priority="203" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AP17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="199" priority="204" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AP17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP17">
+    <cfRule type="containsText" dxfId="198" priority="202" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AP17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP19">
+    <cfRule type="containsText" dxfId="197" priority="200" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AP19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="201" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AP19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP19">
+    <cfRule type="containsText" dxfId="195" priority="199" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AP19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP22:AP23">
+    <cfRule type="containsText" dxfId="194" priority="197" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AP22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="198" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AP22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP22:AP23">
+    <cfRule type="containsText" dxfId="192" priority="196" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AP22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS4:AS6">
+    <cfRule type="containsText" dxfId="191" priority="191" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AS4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="192" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AS4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS4:AS6">
+    <cfRule type="containsText" dxfId="189" priority="190" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AS4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT5:AT9">
+    <cfRule type="containsText" dxfId="188" priority="188" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="189" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT5:AT9">
+    <cfRule type="containsText" dxfId="186" priority="187" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU8:AU13">
+    <cfRule type="containsText" dxfId="185" priority="185" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AU8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="186" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AU8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU8:AU13">
+    <cfRule type="containsText" dxfId="183" priority="184" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AU8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ8:AQ10">
+    <cfRule type="containsText" dxfId="182" priority="182" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AQ8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="183" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AQ8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ8:AQ10">
+    <cfRule type="containsText" dxfId="180" priority="181" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AQ8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR6:AR13">
+    <cfRule type="containsText" dxfId="179" priority="179" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AR6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="180" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AR6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR6:AR13">
+    <cfRule type="containsText" dxfId="177" priority="178" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AR6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU6">
+    <cfRule type="containsText" dxfId="176" priority="176" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AU6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="177" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AU6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU6">
+    <cfRule type="containsText" dxfId="174" priority="175" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AU6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT11:AT12">
+    <cfRule type="containsText" dxfId="173" priority="173" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="174" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT11:AT12">
+    <cfRule type="containsText" dxfId="171" priority="172" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14:AT17">
+    <cfRule type="containsText" dxfId="170" priority="170" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="171" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14:AT17">
+    <cfRule type="containsText" dxfId="168" priority="169" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS14:AS31">
+    <cfRule type="containsText" dxfId="167" priority="167" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AS14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="168" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AS14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS14:AS31">
+    <cfRule type="containsText" dxfId="165" priority="166" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AS14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ12:AQ16">
+    <cfRule type="containsText" dxfId="164" priority="164" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AQ12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="165" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AQ12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ12:AQ16">
+    <cfRule type="containsText" dxfId="162" priority="163" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AQ12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR15">
+    <cfRule type="containsText" dxfId="161" priority="161" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AR15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="162" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AR15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR15">
+    <cfRule type="containsText" dxfId="159" priority="160" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AR15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ18:AQ19">
+    <cfRule type="containsText" dxfId="158" priority="158" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AQ18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="159" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AQ18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ18:AQ19">
+    <cfRule type="containsText" dxfId="156" priority="157" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AQ18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR20:AR21">
+    <cfRule type="containsText" dxfId="155" priority="155" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AR20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="156" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AR20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR20:AR21">
+    <cfRule type="containsText" dxfId="153" priority="154" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AR20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR17:AR18">
+    <cfRule type="containsText" dxfId="152" priority="152" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AR17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="153" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AR17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR17:AR18">
+    <cfRule type="containsText" dxfId="150" priority="151" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AR17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU15:AU17">
+    <cfRule type="containsText" dxfId="149" priority="149" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AU15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="150" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AU15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU15:AU17">
+    <cfRule type="containsText" dxfId="147" priority="148" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AU15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU19:AU23">
+    <cfRule type="containsText" dxfId="146" priority="146" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AU19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="147" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AU19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU19:AU23">
+    <cfRule type="containsText" dxfId="144" priority="145" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AU19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT19:AT28">
+    <cfRule type="containsText" dxfId="143" priority="143" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="144" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT19:AT28">
+    <cfRule type="containsText" dxfId="141" priority="142" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24:AQ27">
+    <cfRule type="containsText" dxfId="140" priority="140" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AQ24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="141" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AQ24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24:AQ27">
+    <cfRule type="containsText" dxfId="138" priority="139" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AQ24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR24:AR27">
+    <cfRule type="containsText" dxfId="137" priority="137" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AR24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="138" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AR24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR24:AR27">
+    <cfRule type="containsText" dxfId="135" priority="136" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AR24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU25:AU31">
+    <cfRule type="containsText" dxfId="134" priority="134" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AU25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="135" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AU25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU25:AU31">
+    <cfRule type="containsText" dxfId="132" priority="133" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AU25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS8:AS11">
+    <cfRule type="containsText" dxfId="131" priority="131" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AS8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="132" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AS8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS8:AS11">
+    <cfRule type="containsText" dxfId="129" priority="130" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AS8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT30:AT31 AT37">
+    <cfRule type="containsText" dxfId="128" priority="128" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="129" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT30:AT31 AT37">
+    <cfRule type="containsText" dxfId="126" priority="127" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ29:AQ31">
+    <cfRule type="containsText" dxfId="125" priority="125" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AQ29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="126" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AQ29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ29:AQ31">
+    <cfRule type="containsText" dxfId="123" priority="124" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AQ29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR29:AR31">
+    <cfRule type="containsText" dxfId="122" priority="122" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AR29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="123" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AR29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR29:AR31">
+    <cfRule type="containsText" dxfId="120" priority="121" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AR29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT39">
+    <cfRule type="containsText" dxfId="119" priority="52" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT39">
+    <cfRule type="containsText" dxfId="118" priority="53" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="54" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO35">
+    <cfRule type="containsText" dxfId="116" priority="77" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="78" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO35">
+    <cfRule type="containsText" dxfId="114" priority="76" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO32:AS32">
+    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="120" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO32:AS32">
+    <cfRule type="containsText" dxfId="111" priority="118" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU32">
+    <cfRule type="containsText" dxfId="110" priority="116" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AU32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="117" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AU32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU32">
+    <cfRule type="containsText" dxfId="108" priority="115" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AU32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT32">
+    <cfRule type="containsText" dxfId="107" priority="113" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="114" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT32">
+    <cfRule type="containsText" dxfId="105" priority="112" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO36:AQ36">
+    <cfRule type="containsText" dxfId="104" priority="110" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="111" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO36:AQ36">
+    <cfRule type="containsText" dxfId="102" priority="109" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS36">
+    <cfRule type="containsText" dxfId="101" priority="107" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AS36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="108" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AS36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS36">
+    <cfRule type="containsText" dxfId="99" priority="106" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AS36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU36">
+    <cfRule type="containsText" dxfId="98" priority="104" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AU36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="105" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AU36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU36">
+    <cfRule type="containsText" dxfId="96" priority="103" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AU36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT36">
+    <cfRule type="containsText" dxfId="95" priority="101" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="102" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT36">
+    <cfRule type="containsText" dxfId="93" priority="100" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR36">
+    <cfRule type="containsText" dxfId="92" priority="98" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AR36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="99" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AR36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR36">
+    <cfRule type="containsText" dxfId="90" priority="97" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AR36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR34:AS34">
+    <cfRule type="containsText" dxfId="89" priority="74" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AR34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="75" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AR34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR34:AS34">
+    <cfRule type="containsText" dxfId="87" priority="73" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AR34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO38:AQ38">
+    <cfRule type="containsText" dxfId="86" priority="95" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="96" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO38:AQ38">
+    <cfRule type="containsText" dxfId="84" priority="94" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS38">
+    <cfRule type="containsText" dxfId="83" priority="92" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AS38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="93" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AS38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS38">
+    <cfRule type="containsText" dxfId="81" priority="91" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AS38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU38">
+    <cfRule type="containsText" dxfId="80" priority="89" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AU38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="90" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AU38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU38">
+    <cfRule type="containsText" dxfId="78" priority="88" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AU38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT38">
+    <cfRule type="containsText" dxfId="77" priority="86" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="87" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT38">
+    <cfRule type="containsText" dxfId="75" priority="85" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR38">
+    <cfRule type="containsText" dxfId="74" priority="83" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AR38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="84" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AR38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR38">
+    <cfRule type="containsText" dxfId="72" priority="82" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AR38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO33:AU33">
+    <cfRule type="containsText" dxfId="71" priority="80" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="81" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO33:AU33">
+    <cfRule type="containsText" dxfId="69" priority="79" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO34 AQ34">
+    <cfRule type="containsText" dxfId="68" priority="71" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="72" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO34 AQ34">
+    <cfRule type="containsText" dxfId="66" priority="70" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP34">
+    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AP34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="69" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AP34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP34">
+    <cfRule type="containsText" dxfId="63" priority="67" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AP34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT34">
+    <cfRule type="containsText" dxfId="62" priority="65" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="66" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT34">
+    <cfRule type="containsText" dxfId="60" priority="64" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU34">
+    <cfRule type="containsText" dxfId="59" priority="62" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AU34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="63" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AU34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU34">
+    <cfRule type="containsText" dxfId="57" priority="61" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AU34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO39:AS39">
+    <cfRule type="containsText" dxfId="56" priority="59" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="60" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO39:AS39">
+    <cfRule type="containsText" dxfId="54" priority="58" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU39">
+    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AU39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="57" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AU39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU39">
+    <cfRule type="containsText" dxfId="51" priority="55" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AU39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU38 AO38:AS38">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU38 AO38:AS38">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT38">
+    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT38">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO36:AR36">
+    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="30" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO36:AR36">
+    <cfRule type="containsText" dxfId="42" priority="28" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS36">
+    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AS36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="27" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AS36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS36">
+    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AS36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU36">
+    <cfRule type="containsText" dxfId="38" priority="23" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AU36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="24" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AU36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU36">
+    <cfRule type="containsText" dxfId="36" priority="22" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AU36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT36">
+    <cfRule type="containsText" dxfId="35" priority="20" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="21" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT36">
+    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO37:AQ37">
+    <cfRule type="containsText" dxfId="32" priority="44" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AO37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="45" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AO37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO37:AQ37">
+    <cfRule type="containsText" dxfId="30" priority="43" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AO37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS37">
+    <cfRule type="containsText" dxfId="29" priority="41" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AS37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="42" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AS37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS37">
+    <cfRule type="containsText" dxfId="27" priority="40" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AS37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU37">
+    <cfRule type="containsText" dxfId="26" priority="38" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AU37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="39" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AU37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU37">
+    <cfRule type="containsText" dxfId="24" priority="37" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AU37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT37">
+    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="36" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT37">
+    <cfRule type="containsText" dxfId="21" priority="34" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR37">
+    <cfRule type="containsText" dxfId="20" priority="32" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AR37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AR37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR37">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AR37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP35">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AP35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AP35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP35">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AP35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ35">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AQ35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AQ35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ35">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AQ35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR35">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AR35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AR35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR35">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AR35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS35">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AS35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AS35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS35">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AS35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT35">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AT35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AT35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT35">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AT35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU35">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="결">
+      <formula>NOT(ISERROR(SEARCH("결",AU35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="출">
+      <formula>NOT(ISERROR(SEARCH("출",AU35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU35">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="입">
+      <formula>NOT(ISERROR(SEARCH("입",AU35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
